--- a/docs/Testing & Evaluation Design/Models Optimization.xlsx
+++ b/docs/Testing & Evaluation Design/Models Optimization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FYP\content-recommendation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FYP\content-recommendation\docs\Testing &amp; Evaluation Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB41532-11E5-4F68-983F-00809F8F8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0975185-5846-4129-BD9B-24A29E41F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item CF" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Objective</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>MRR</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Dataset</t>
@@ -289,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,15 +390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5E6B7B-BA93-4178-A717-FFFF2FA5F02E}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,8 +690,7 @@
     <col min="13" max="13" width="10.6328125" style="18" customWidth="1"/>
     <col min="14" max="16" width="10.6328125" style="17" customWidth="1"/>
     <col min="17" max="17" width="10.6328125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" style="39" customWidth="1"/>
-    <col min="19" max="19" width="10.6328125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="10.6328125" style="2" customWidth="1"/>
     <col min="20" max="20" width="15.6328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,18 +708,18 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
       <c r="J1" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
       <c r="N1" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
       <c r="Q1" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
@@ -769,34 +756,34 @@
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="T2" s="36"/>
     </row>
@@ -811,34 +798,34 @@
         <v>25</v>
       </c>
       <c r="D3" s="24">
-        <v>0.55741600000000002</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E3" s="25">
-        <v>0.63323799999999997</v>
+        <v>0.63319999999999999</v>
       </c>
       <c r="F3" s="25">
-        <v>0.26530599999999999</v>
+        <v>0.2656</v>
       </c>
       <c r="G3" s="25">
-        <v>0.373942</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="H3" s="25">
-        <v>0.32306299999999999</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>28</v>
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="I3" s="25">
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="J3" s="26">
         <v>221</v>
       </c>
       <c r="K3" s="21">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L3" s="21">
         <v>128</v>
       </c>
       <c r="M3" s="27">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N3" s="21">
         <v>1.5</v>
@@ -850,16 +837,16 @@
         <v>1000</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="38">
-        <v>833</v>
+        <v>42</v>
+      </c>
+      <c r="R3" s="21">
+        <v>832</v>
       </c>
       <c r="S3" s="21">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +868,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
